--- a/output/fit_clients/fit_round_26.xlsx
+++ b/output/fit_clients/fit_round_26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,32 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_mu</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_U</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -485,25 +510,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D2" t="n">
-        <v>8520005483.367655</v>
+        <v>12902400175.68696</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001351815838892293</v>
+        <v>0.004212508431506714</v>
       </c>
       <c r="F2" t="n">
-        <v>0.146033972915732</v>
+        <v>0.09683849617022713</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.159636486420416</v>
+        <v>0.05324813822692366</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2160539629591428</v>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.253132714455287</v>
+      </c>
+      <c r="L2" t="n">
+        <v>8.52477265454281</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.7479874343609985</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6.434976032677159</v>
       </c>
     </row>
     <row r="3">
@@ -516,25 +556,40 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>555</v>
+        <v>601</v>
       </c>
       <c r="D3" t="n">
-        <v>8316554440.512812</v>
+        <v>11233760731.52618</v>
       </c>
       <c r="E3" t="n">
-        <v>0.004891641142873002</v>
+        <v>0.004729482473230561</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1748033347702536</v>
+        <v>0.1401359195395759</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2484478505958282</v>
+        <v>0.159962814815945</v>
       </c>
       <c r="I3" t="n">
-        <v>2.35808915489447</v>
+        <v>9</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.9856896746912659</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.5464805738913949</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.303693887253903</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.8957984940594752</v>
+      </c>
+      <c r="N3" t="n">
+        <v>14.6122759939356</v>
       </c>
     </row>
     <row r="4">
@@ -547,25 +602,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>567</v>
+        <v>500</v>
       </c>
       <c r="D4" t="n">
-        <v>7951963319.141397</v>
+        <v>9677887601.941914</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002660625459979935</v>
+        <v>0.004673846907399744</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1867707470964997</v>
+        <v>0.1353286020533245</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2853913955975575</v>
+        <v>0.1481142730117406</v>
       </c>
       <c r="I4" t="n">
-        <v>2.409074866351647</v>
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1290021809797127</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8.400642121067236</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.7596878429337801</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6.793114737608366</v>
       </c>
     </row>
     <row r="5">
@@ -578,25 +648,40 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>554</v>
+        <v>411</v>
       </c>
       <c r="D5" t="n">
-        <v>7080382544.293445</v>
+        <v>8951603004.904596</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004016583157079982</v>
+        <v>0.001223787715423529</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2049524938690739</v>
+        <v>0.1202655311467841</v>
       </c>
       <c r="G5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3415186653691124</v>
+        <v>0.1109884901096822</v>
       </c>
       <c r="I5" t="n">
-        <v>2.353840345606371</v>
+        <v>11</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.9863273068358065</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.09590271441136636</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.589895994610288</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.6883516557373529</v>
+      </c>
+      <c r="N5" t="n">
+        <v>11.17713712013677</v>
       </c>
     </row>
     <row r="6">
@@ -609,25 +694,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>467</v>
+        <v>514</v>
       </c>
       <c r="D6" t="n">
-        <v>6363090651.866947</v>
+        <v>7258966918.483742</v>
       </c>
       <c r="E6" t="n">
-        <v>0.004860331894281408</v>
+        <v>0.001582336081445277</v>
       </c>
       <c r="F6" t="n">
-        <v>0.192242291824193</v>
+        <v>0.1854763184788325</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3022821196209287</v>
+        <v>0.2717127905118489</v>
       </c>
       <c r="I6" t="n">
-        <v>1.984193937541833</v>
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2051108162877704</v>
+      </c>
+      <c r="L6" t="n">
+        <v>8.476750756375294</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.7666088739151308</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6.855426721927321</v>
       </c>
     </row>
     <row r="7">
@@ -640,25 +740,40 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>449</v>
+        <v>612</v>
       </c>
       <c r="D7" t="n">
-        <v>10987828390.8259</v>
+        <v>3823019104.332891</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00476053254405719</v>
+        <v>0.001883725710957506</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1070371749691659</v>
+        <v>0.4193195577241908</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03925290469133033</v>
+        <v>0.8480636148027799</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1556615546703606</v>
+        <v>14</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.9883281563859598</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.3927528687266489</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.603441631766852</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.8230455468338942</v>
+      </c>
+      <c r="N7" t="n">
+        <v>13.85746930491103</v>
       </c>
     </row>
     <row r="8">
@@ -671,25 +786,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>584</v>
+        <v>460</v>
       </c>
       <c r="D8" t="n">
-        <v>10113058499.02034</v>
+        <v>6438593621.498739</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002545926378417389</v>
+        <v>0.00141942319606712</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1512622279548947</v>
+        <v>0.1871401537094565</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.175776172265135</v>
+        <v>0.2758136266521156</v>
       </c>
       <c r="I8" t="n">
-        <v>2.481304624249316</v>
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.1093358048275254</v>
+      </c>
+      <c r="L8" t="n">
+        <v>8.380975744915048</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.739056638624395</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6.400157027572851</v>
       </c>
     </row>
     <row r="9">
@@ -702,25 +832,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>444</v>
+        <v>509</v>
       </c>
       <c r="D9" t="n">
-        <v>8790602189.595737</v>
+        <v>8559297276.673427</v>
       </c>
       <c r="E9" t="n">
-        <v>0.004667730463380518</v>
+        <v>0.003457409428442477</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1323014208715415</v>
+        <v>0.1557685715197142</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1172439339953188</v>
+        <v>0.1984924378389671</v>
       </c>
       <c r="I9" t="n">
-        <v>1.886471323915576</v>
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.4145510261416697</v>
+      </c>
+      <c r="L9" t="n">
+        <v>8.686190966229193</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.7641538482941342</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6.596885999653493</v>
       </c>
     </row>
     <row r="10">
@@ -733,25 +878,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>553</v>
+        <v>522</v>
       </c>
       <c r="D10" t="n">
-        <v>7109894992.797503</v>
+        <v>5979488824.027066</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001195970560627643</v>
+        <v>0.002444318691671547</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2037333422599615</v>
+        <v>0.2286686404539738</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3377551297686553</v>
+        <v>0.378168424866504</v>
       </c>
       <c r="I10" t="n">
-        <v>2.349591536318274</v>
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.08828996757149382</v>
+      </c>
+      <c r="L10" t="n">
+        <v>8.359929907659017</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.7704991754980772</v>
+      </c>
+      <c r="N10" t="n">
+        <v>7.050053602302528</v>
       </c>
     </row>
     <row r="11">
@@ -764,25 +924,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>411</v>
+        <v>579</v>
       </c>
       <c r="D11" t="n">
-        <v>8110638806.2401</v>
+        <v>5525589926.748403</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002341589887010742</v>
+        <v>0.003264219028667802</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1327354497862385</v>
+        <v>0.2744732834150935</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1185837864467124</v>
+        <v>0.4910626176265245</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1533419884671743</v>
+        <v>9</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.3676851037768942</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.124898417139402</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.5788542717298466</v>
+      </c>
+      <c r="N11" t="n">
+        <v>8.452187017457529</v>
       </c>
     </row>
     <row r="12">
@@ -795,25 +970,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D12" t="n">
-        <v>9721752827.384182</v>
+        <v>3836619169.53785</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001210634708075548</v>
+        <v>0.001077080645217143</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1304070143018768</v>
+        <v>0.3318086793986763</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1113958782544389</v>
+        <v>0.6323765287869507</v>
       </c>
       <c r="I12" t="n">
-        <v>2.056423695439502</v>
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.1607638034554517</v>
+      </c>
+      <c r="L12" t="n">
+        <v>8.432403743542974</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.7526164769697811</v>
+      </c>
+      <c r="N12" t="n">
+        <v>6.619925795852648</v>
       </c>
     </row>
     <row r="13">
@@ -826,25 +1016,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>473</v>
+        <v>547</v>
       </c>
       <c r="D13" t="n">
-        <v>6173268976.257866</v>
+        <v>14678017072.78079</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003799180704273011</v>
+        <v>0.004896683613022226</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2006994146480629</v>
+        <v>0.09761579666350333</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3283893589397895</v>
+        <v>0.05516394208538553</v>
       </c>
       <c r="I13" t="n">
-        <v>0.189237267758365</v>
+        <v>8</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.9862519112758443</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.2707318538236774</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3.195198200408365</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.8741094867233916</v>
+      </c>
+      <c r="N13" t="n">
+        <v>14.28699153405947</v>
       </c>
     </row>
     <row r="14">
@@ -857,25 +1062,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>529</v>
+        <v>615</v>
       </c>
       <c r="D14" t="n">
-        <v>7881328304.421546</v>
+        <v>4350882594.005905</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002083211896376473</v>
+        <v>0.002813756704495657</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1758151997325914</v>
+        <v>0.3702524292931573</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2515714898381911</v>
+        <v>0.7271284104835193</v>
       </c>
       <c r="I14" t="n">
-        <v>2.247620113403918</v>
+        <v>11</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.9862093358133247</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.3426886206892555</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.836681900888177</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.8750140847042523</v>
+      </c>
+      <c r="N14" t="n">
+        <v>14.66359979319687</v>
       </c>
     </row>
     <row r="15">
@@ -888,25 +1108,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>561</v>
+        <v>375</v>
       </c>
       <c r="D15" t="n">
-        <v>8074961392.841253</v>
+        <v>10118402557.61951</v>
       </c>
       <c r="E15" t="n">
-        <v>0.003835257473186202</v>
+        <v>0.001760728831000593</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1819795437415646</v>
+        <v>0.09707770020084008</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2706008935299311</v>
+        <v>0.0538377017339226</v>
       </c>
       <c r="I15" t="n">
-        <v>2.383582010623059</v>
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.1058441099141851</v>
+      </c>
+      <c r="L15" t="n">
+        <v>5.95477680308356</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.6613035331056051</v>
+      </c>
+      <c r="N15" t="n">
+        <v>7.271293859028542</v>
       </c>
     </row>
     <row r="16">
@@ -919,25 +1154,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>597</v>
+        <v>509</v>
       </c>
       <c r="D16" t="n">
-        <v>7357222074.742817</v>
+        <v>10228453395.36892</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001409256946904231</v>
+        <v>0.004064863544109287</v>
       </c>
       <c r="F16" t="n">
-        <v>0.212549765946091</v>
+        <v>0.1303490819642056</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3649715351471612</v>
+        <v>0.1358413053723999</v>
       </c>
       <c r="I16" t="n">
-        <v>2.536539144994592</v>
+        <v>5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.5430529773554426</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4.24224281564304</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.6629813657360198</v>
+      </c>
+      <c r="N16" t="n">
+        <v>9.017384499077357</v>
       </c>
     </row>
     <row r="17">
@@ -950,25 +1200,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>443</v>
+        <v>548</v>
       </c>
       <c r="D17" t="n">
-        <v>9082684348.908943</v>
+        <v>13617039281.40424</v>
       </c>
       <c r="E17" t="n">
-        <v>0.002632533958853625</v>
+        <v>0.003703471732622985</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1277584605413918</v>
+        <v>0.1054139369312279</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1032197611146136</v>
+        <v>0.07438393144981434</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1823962425361104</v>
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.4100367184014016</v>
+      </c>
+      <c r="L17" t="n">
+        <v>8.681676658488925</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.7828362415685332</v>
+      </c>
+      <c r="N17" t="n">
+        <v>6.975048172881738</v>
       </c>
     </row>
     <row r="18">
@@ -981,25 +1246,40 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>466</v>
+        <v>419</v>
       </c>
       <c r="D18" t="n">
-        <v>10966627636.36339</v>
+        <v>9115391028.378267</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002530237705619667</v>
+        <v>0.00268396840055083</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1113045669529791</v>
+        <v>0.1204034370640995</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.05242639479062849</v>
+        <v>0.1113283852863648</v>
       </c>
       <c r="I18" t="n">
-        <v>1.979945128253735</v>
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.1607979897498079</v>
+      </c>
+      <c r="L18" t="n">
+        <v>8.432437929837331</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.7164140398831418</v>
+      </c>
+      <c r="N18" t="n">
+        <v>5.895842867825504</v>
       </c>
     </row>
     <row r="19">
@@ -1012,25 +1292,40 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D19" t="n">
-        <v>6453904217.728215</v>
+        <v>8965138191.444992</v>
       </c>
       <c r="E19" t="n">
-        <v>0.003725842327384357</v>
+        <v>0.004381170488033023</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2037423760315518</v>
+        <v>0.1460875417681548</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.3377830171296138</v>
+        <v>0.1746317117589546</v>
       </c>
       <c r="I19" t="n">
-        <v>2.132902262625268</v>
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.5012376349196741</v>
+      </c>
+      <c r="L19" t="n">
+        <v>8.772877575007197</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.7596878429337801</v>
+      </c>
+      <c r="N19" t="n">
+        <v>6.420879283668405</v>
       </c>
     </row>
     <row r="20">
@@ -1043,25 +1338,40 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="D20" t="n">
-        <v>8854089828.271126</v>
+        <v>7230392021.936394</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002579420329773804</v>
+        <v>0.00339823203015052</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1730661400234754</v>
+        <v>0.2046853539213284</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.2430851096327198</v>
+        <v>0.3190570859759563</v>
       </c>
       <c r="I20" t="n">
-        <v>2.485553433537414</v>
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.74589236555726</v>
+      </c>
+      <c r="L20" t="n">
+        <v>9.017532305644783</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.7906637924836553</v>
+      </c>
+      <c r="N20" t="n">
+        <v>6.795743544028321</v>
       </c>
     </row>
     <row r="21">
@@ -1074,25 +1384,40 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>540</v>
+        <v>377</v>
       </c>
       <c r="D21" t="n">
-        <v>9028542749.821266</v>
+        <v>8408241574.541587</v>
       </c>
       <c r="E21" t="n">
-        <v>0.004981914292164171</v>
+        <v>0.002392255091252635</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1566665451108377</v>
+        <v>0.1174454874120144</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1924593639703566</v>
+        <v>0.1040379597615902</v>
       </c>
       <c r="I21" t="n">
-        <v>2.294357015572997</v>
+        <v>7</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.1255351042622175</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3.251921135139474</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.4329817679532579</v>
+      </c>
+      <c r="N21" t="n">
+        <v>5.407714223925685</v>
       </c>
     </row>
     <row r="22">
@@ -1105,25 +1430,40 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>548</v>
+        <v>604</v>
       </c>
       <c r="D22" t="n">
-        <v>6155523041.216789</v>
+        <v>14906446477.18378</v>
       </c>
       <c r="E22" t="n">
-        <v>0.003435409090929079</v>
+        <v>0.004228785649608674</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2331931357235653</v>
+        <v>0.1061360641801266</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.4286978645800406</v>
+        <v>0.07616375042807012</v>
       </c>
       <c r="I22" t="n">
-        <v>2.328347489877783</v>
+        <v>10</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.3456865389672782</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2.961408758516807</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.5604141421642899</v>
+      </c>
+      <c r="N22" t="n">
+        <v>8.24687408476899</v>
       </c>
     </row>
     <row r="23">
@@ -1136,25 +1476,40 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>478</v>
+        <v>538</v>
       </c>
       <c r="D23" t="n">
-        <v>5035857884.503326</v>
+        <v>4617505948.919737</v>
       </c>
       <c r="E23" t="n">
-        <v>0.003950282358147591</v>
+        <v>0.00442692559926159</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2486306104572465</v>
+        <v>0.3051932873697085</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.4763535337413712</v>
+        <v>0.5667778688290007</v>
       </c>
       <c r="I23" t="n">
-        <v>2.030930839710912</v>
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.4719053501680949</v>
+      </c>
+      <c r="L23" t="n">
+        <v>8.743545290255618</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.7781451389745436</v>
+      </c>
+      <c r="N23" t="n">
+        <v>6.819357489235255</v>
       </c>
     </row>
     <row r="24">
@@ -1167,25 +1522,40 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>525</v>
+        <v>569</v>
       </c>
       <c r="D24" t="n">
-        <v>8330559548.037859</v>
+        <v>4249401825.237162</v>
       </c>
       <c r="E24" t="n">
-        <v>0.002757449512240559</v>
+        <v>0.004152234714061027</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1650765164176641</v>
+        <v>0.3507394619987056</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2184210459920918</v>
+        <v>0.6790350175728991</v>
       </c>
       <c r="I24" t="n">
-        <v>2.230624876251525</v>
+        <v>8</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.9879966368451871</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.3333528975692788</v>
+      </c>
+      <c r="L24" t="n">
+        <v>3.257819244153967</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.8901087917075921</v>
+      </c>
+      <c r="N24" t="n">
+        <v>14.54435658999787</v>
       </c>
     </row>
     <row r="25">
@@ -1198,25 +1568,40 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="D25" t="n">
-        <v>8645142707.938705</v>
+        <v>10020873246.51624</v>
       </c>
       <c r="E25" t="n">
-        <v>0.003374091722585616</v>
+        <v>0.003735397575031725</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1530098454922323</v>
+        <v>0.1288669398596517</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1811710885073743</v>
+        <v>0.1321882862539824</v>
       </c>
       <c r="I25" t="n">
-        <v>0.185931799902873</v>
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.332831625603894</v>
+      </c>
+      <c r="L25" t="n">
+        <v>8.604471565691417</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.7561714472615992</v>
+      </c>
+      <c r="N25" t="n">
+        <v>6.518957379540568</v>
       </c>
     </row>
     <row r="26">
@@ -1229,25 +1614,40 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>418</v>
+        <v>591</v>
       </c>
       <c r="D26" t="n">
-        <v>4709769083.709783</v>
+        <v>4295715437.64688</v>
       </c>
       <c r="E26" t="n">
-        <v>0.001619619687924144</v>
+        <v>0.003346233460880628</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2324753083515439</v>
+        <v>0.3603729140047509</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.4264819228961741</v>
+        <v>0.70277847931406</v>
       </c>
       <c r="I26" t="n">
-        <v>1.776002282425024</v>
+        <v>15</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.3282422968227051</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2.463970545741578</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-0.4269406345345563</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-11.00278323643271</v>
       </c>
     </row>
     <row r="27">
@@ -1260,25 +1660,40 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>559</v>
+        <v>587</v>
       </c>
       <c r="D27" t="n">
-        <v>7659886580.38116</v>
+        <v>7866987498.683661</v>
       </c>
       <c r="E27" t="n">
-        <v>0.001976772246546785</v>
+        <v>0.00401423750995453</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1911567481625999</v>
+        <v>0.1954473590122363</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2989310333526423</v>
+        <v>0.2962883029320978</v>
       </c>
       <c r="I27" t="n">
-        <v>2.375084392046862</v>
+        <v>13</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.9873025769772332</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.3217741222679218</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2.615914271203418</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.8202300860317882</v>
+      </c>
+      <c r="N27" t="n">
+        <v>13.78868744943235</v>
       </c>
     </row>
     <row r="28">
@@ -1291,25 +1706,40 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>440</v>
+        <v>578</v>
       </c>
       <c r="D28" t="n">
-        <v>8205927783.446497</v>
+        <v>9363292044.660711</v>
       </c>
       <c r="E28" t="n">
-        <v>0.004708951780596967</v>
+        <v>0.003820774004081493</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1404511019856838</v>
+        <v>0.1616960586915947</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0.1424020970787246</v>
+        <v>0.2131018493768506</v>
       </c>
       <c r="I28" t="n">
-        <v>1.869476086763183</v>
+        <v>8</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.4054813749558649</v>
+      </c>
+      <c r="L28" t="n">
+        <v>3.329947721540553</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.6163204160112647</v>
+      </c>
+      <c r="N28" t="n">
+        <v>8.996460598684742</v>
       </c>
     </row>
     <row r="29">
@@ -1322,25 +1752,40 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>521</v>
+        <v>618</v>
       </c>
       <c r="D29" t="n">
-        <v>7446653079.317832</v>
+        <v>5529130231.448442</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003648709149239378</v>
+        <v>0.004965611296417732</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1832638334918936</v>
+        <v>0.2927735380137599</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2745655113514868</v>
+        <v>0.5361670510782378</v>
       </c>
       <c r="I29" t="n">
-        <v>2.213629639099133</v>
+        <v>11</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.3039302971158022</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2.797923577314724</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.5279391214564717</v>
+      </c>
+      <c r="N29" t="n">
+        <v>7.76085885181471</v>
       </c>
     </row>
     <row r="30">
@@ -1353,25 +1798,40 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>588</v>
+        <v>477</v>
       </c>
       <c r="D30" t="n">
-        <v>4160001205.031182</v>
+        <v>6483848141.990362</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003692672530015469</v>
+        <v>0.004754256667193547</v>
       </c>
       <c r="F30" t="n">
-        <v>0.3702405946751294</v>
+        <v>0.1927017725644101</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8517650096842433</v>
+        <v>0.289521286628897</v>
       </c>
       <c r="I30" t="n">
-        <v>0.1870836211431701</v>
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.08891684913212877</v>
+      </c>
+      <c r="L30" t="n">
+        <v>8.360556789219652</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.7479874343609985</v>
+      </c>
+      <c r="N30" t="n">
+        <v>6.599191898000317</v>
       </c>
     </row>
     <row r="31">
@@ -1384,25 +1844,40 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>562</v>
+        <v>375</v>
       </c>
       <c r="D31" t="n">
-        <v>4559352473.011717</v>
+        <v>6576469428.629954</v>
       </c>
       <c r="E31" t="n">
-        <v>0.004953000027454639</v>
+        <v>0.00204219693722102</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3228741775753947</v>
+        <v>0.1493614865331522</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.7055443135144444</v>
+        <v>0.1827009669150096</v>
       </c>
       <c r="I31" t="n">
-        <v>2.387830819911157</v>
+        <v>4</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.266000698078337</v>
+      </c>
+      <c r="L31" t="n">
+        <v>4.401820668122099</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.5928445929471789</v>
+      </c>
+      <c r="N31" t="n">
+        <v>7.45507119082148</v>
       </c>
     </row>
     <row r="32">
@@ -1415,25 +1890,40 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>448</v>
+        <v>397</v>
       </c>
       <c r="D32" t="n">
-        <v>4703021485.033166</v>
+        <v>12686119454.318</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002302539363220608</v>
+        <v>0.003322977913475706</v>
       </c>
       <c r="F32" t="n">
-        <v>0.2495176183512001</v>
+        <v>0.08197130996161696</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4790917377201293</v>
+        <v>0.0166051501556347</v>
       </c>
       <c r="I32" t="n">
-        <v>1.903466561067968</v>
+        <v>8</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.1469596024844155</v>
+      </c>
+      <c r="L32" t="n">
+        <v>3.071425949069103</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.3821184486755371</v>
+      </c>
+      <c r="N32" t="n">
+        <v>4.570943024441638</v>
       </c>
     </row>
     <row r="33">
@@ -1446,25 +1936,40 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>419</v>
+        <v>519</v>
       </c>
       <c r="D33" t="n">
-        <v>10022772821.96366</v>
+        <v>4393406859.290749</v>
       </c>
       <c r="E33" t="n">
-        <v>0.003042729667140085</v>
+        <v>0.003449276237456637</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1095030716045875</v>
+        <v>0.3094326233695245</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0468651571011951</v>
+        <v>0.577226512996885</v>
       </c>
       <c r="I33" t="n">
-        <v>1.780251091713122</v>
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.1980929324883558</v>
+      </c>
+      <c r="L33" t="n">
+        <v>8.469732872575879</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.7690456904926005</v>
+      </c>
+      <c r="N33" t="n">
+        <v>6.911180937276132</v>
       </c>
     </row>
     <row r="34">
@@ -1477,25 +1982,40 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>537</v>
+        <v>424</v>
       </c>
       <c r="D34" t="n">
-        <v>8397033202.725923</v>
+        <v>12486687295.35374</v>
       </c>
       <c r="E34" t="n">
-        <v>0.00168172816104123</v>
+        <v>0.004010447019284172</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1675130246648748</v>
+        <v>0.08894443608059753</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.2259425760960142</v>
+        <v>0.03379173634700284</v>
       </c>
       <c r="I34" t="n">
-        <v>2.281610587708703</v>
+        <v>6</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.3228009004294777</v>
+      </c>
+      <c r="L34" t="n">
+        <v>3.69968376530282</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.5557118842253069</v>
+      </c>
+      <c r="N34" t="n">
+        <v>7.414553919203319</v>
       </c>
     </row>
     <row r="35">
@@ -1508,25 +2028,40 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>474</v>
+        <v>611</v>
       </c>
       <c r="D35" t="n">
-        <v>10535806298.45974</v>
+        <v>3792338122.214118</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002295289182122432</v>
+        <v>0.00487487922544918</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1178448829475455</v>
+        <v>0.4220212540187728</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0.07261642849915924</v>
+        <v>0.8547224555346784</v>
       </c>
       <c r="I35" t="n">
-        <v>0.196671625534943</v>
+        <v>9</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.3287677354201214</v>
+      </c>
+      <c r="L35" t="n">
+        <v>3.085981048782629</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.6073338471490644</v>
+      </c>
+      <c r="N35" t="n">
+        <v>9.060695894198657</v>
       </c>
     </row>
     <row r="36">
@@ -1539,25 +2074,40 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>590</v>
+        <v>463</v>
       </c>
       <c r="D36" t="n">
-        <v>4225241924.486313</v>
+        <v>12539284366.36717</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0016731837889433</v>
+        <v>0.004396834918372778</v>
       </c>
       <c r="F36" t="n">
-        <v>0.3657636953386729</v>
+        <v>0.09671824440419492</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8379447678812709</v>
+        <v>0.05295175504005553</v>
       </c>
       <c r="I36" t="n">
-        <v>2.506797479977905</v>
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.1447429700792935</v>
+      </c>
+      <c r="L36" t="n">
+        <v>8.416382910166817</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.7406509831910013</v>
+      </c>
+      <c r="N36" t="n">
+        <v>6.396636753653208</v>
       </c>
     </row>
     <row r="37">
@@ -1570,25 +2120,40 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>459</v>
+        <v>378</v>
       </c>
       <c r="D37" t="n">
-        <v>6360334753.159587</v>
+        <v>7474730622.995668</v>
       </c>
       <c r="E37" t="n">
-        <v>0.003464404985076307</v>
+        <v>0.003463822825190348</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1890309325940337</v>
+        <v>0.1324635588811605</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.2923686152641083</v>
+        <v>0.1410528330520707</v>
       </c>
       <c r="I37" t="n">
-        <v>1.950203463237048</v>
+        <v>6</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.2619616085761116</v>
+      </c>
+      <c r="L37" t="n">
+        <v>3.638844473449454</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.502308319506596</v>
+      </c>
+      <c r="N37" t="n">
+        <v>6.407321916682467</v>
       </c>
     </row>
     <row r="38">
@@ -1601,25 +2166,40 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>409</v>
+        <v>481</v>
       </c>
       <c r="D38" t="n">
-        <v>11358264422.3334</v>
+        <v>6145257765.636108</v>
       </c>
       <c r="E38" t="n">
-        <v>0.001880144056847697</v>
+        <v>0.002473299080977689</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09432167364350809</v>
+        <v>0.2050242053385343</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>0.3198922492855693</v>
       </c>
       <c r="I38" t="n">
-        <v>1.737762998832141</v>
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.185263249270528</v>
+      </c>
+      <c r="L38" t="n">
+        <v>8.456903189358052</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.7500530187927649</v>
+      </c>
+      <c r="N38" t="n">
+        <v>6.544157186497246</v>
       </c>
     </row>
     <row r="39">
@@ -1632,25 +2212,40 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>445</v>
+        <v>573</v>
       </c>
       <c r="D39" t="n">
-        <v>8810580092.35327</v>
+        <v>8059111304.848838</v>
       </c>
       <c r="E39" t="n">
-        <v>0.003428804882655717</v>
+        <v>0.003401184631037176</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1322987292302867</v>
+        <v>0.1862377144607698</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.1172356248665687</v>
+        <v>0.2735893946985576</v>
       </c>
       <c r="I39" t="n">
-        <v>0.2012492919712752</v>
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.8796055806886142</v>
+      </c>
+      <c r="L39" t="n">
+        <v>9.151245520776136</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.7942855930657178</v>
+      </c>
+      <c r="N39" t="n">
+        <v>6.734466340538219</v>
       </c>
     </row>
     <row r="40">
@@ -1663,25 +2258,40 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D40" t="n">
-        <v>5733846077.882339</v>
+        <v>11471138764.62038</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003944419583593229</v>
+        <v>0.002234513778143185</v>
       </c>
       <c r="F40" t="n">
-        <v>0.2430332905822721</v>
+        <v>0.1212517883830193</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.4590745403338587</v>
+        <v>0.1134193073225359</v>
       </c>
       <c r="I40" t="n">
-        <v>2.260366541268212</v>
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.4009578770091899</v>
+      </c>
+      <c r="L40" t="n">
+        <v>8.672597817096714</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.7748216805703551</v>
+      </c>
+      <c r="N40" t="n">
+        <v>6.823835794310387</v>
       </c>
     </row>
     <row r="41">
@@ -1694,25 +2304,40 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>489</v>
+        <v>448</v>
       </c>
       <c r="D41" t="n">
-        <v>4139802141.854034</v>
+        <v>6167825507.346287</v>
       </c>
       <c r="E41" t="n">
-        <v>0.001532106934649001</v>
+        <v>0.00219550369589986</v>
       </c>
       <c r="F41" t="n">
-        <v>0.3094065044921083</v>
+        <v>0.1902593902182057</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.663969445610061</v>
+        <v>0.2835015740940757</v>
       </c>
       <c r="I41" t="n">
-        <v>2.077667741879992</v>
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.2505881178236177</v>
+      </c>
+      <c r="L41" t="n">
+        <v>8.522228057911141</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.732597592313101</v>
+      </c>
+      <c r="N41" t="n">
+        <v>6.129723788350878</v>
       </c>
     </row>
     <row r="42">
@@ -1725,25 +2350,40 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="D42" t="n">
-        <v>4112872619.92326</v>
+        <v>12733936087.28571</v>
       </c>
       <c r="E42" t="n">
-        <v>0.001144279356828981</v>
+        <v>0.004753020793672395</v>
       </c>
       <c r="F42" t="n">
-        <v>0.296147355524647</v>
+        <v>0.08886305634357872</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.6230382941455327</v>
+        <v>0.03359116061660013</v>
       </c>
       <c r="I42" t="n">
-        <v>0.2059824430883047</v>
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.2019701943007429</v>
+      </c>
+      <c r="L42" t="n">
+        <v>8.473610134388267</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.7237732552799928</v>
+      </c>
+      <c r="N42" t="n">
+        <v>6.001854971211589</v>
       </c>
     </row>
     <row r="43">
@@ -1756,25 +2396,40 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>487</v>
+        <v>378</v>
       </c>
       <c r="D43" t="n">
-        <v>5616722797.246225</v>
+        <v>8410308757.171721</v>
       </c>
       <c r="E43" t="n">
-        <v>0.004111428154496694</v>
+        <v>0.003894510149731226</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2271151659158654</v>
+        <v>0.1177280702275867</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.4099350990808137</v>
+        <v>0.1047344384761819</v>
       </c>
       <c r="I43" t="n">
-        <v>2.069170123303796</v>
+        <v>3</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.1276158596907264</v>
+      </c>
+      <c r="L43" t="n">
+        <v>4.903249405739918</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.6315617684802169</v>
+      </c>
+      <c r="N43" t="n">
+        <v>7.727985963864421</v>
       </c>
     </row>
     <row r="44">
@@ -1787,25 +2442,40 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="D44" t="n">
-        <v>5823845665.865333</v>
+        <v>5767664836.641562</v>
       </c>
       <c r="E44" t="n">
-        <v>0.001635809515497397</v>
+        <v>0.00239899485333726</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2586176448369549</v>
+        <v>0.2674948620798092</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.5071836283334501</v>
+        <v>0.4738629803745772</v>
       </c>
       <c r="I44" t="n">
-        <v>2.443065340656433</v>
+        <v>17</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.9872448978615684</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.3288784270622083</v>
+      </c>
+      <c r="L44" t="n">
+        <v>2.335045790006832</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.7397509046556413</v>
+      </c>
+      <c r="N44" t="n">
+        <v>12.459972303106</v>
       </c>
     </row>
     <row r="45">
@@ -1818,25 +2488,40 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>598</v>
+        <v>376</v>
       </c>
       <c r="D45" t="n">
-        <v>6340854967.075763</v>
+        <v>9192335715.785549</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001034802239271949</v>
+        <v>0.001818596851300997</v>
       </c>
       <c r="F45" t="n">
-        <v>0.2470321791199051</v>
+        <v>0.1071425881790518</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4714191570830407</v>
+        <v>0.07864451890494041</v>
       </c>
       <c r="I45" t="n">
-        <v>2.54078795428269</v>
+        <v>4</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.2340962035540965</v>
+      </c>
+      <c r="L45" t="n">
+        <v>4.369916173597858</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.5937341617266808</v>
+      </c>
+      <c r="N45" t="n">
+        <v>7.504767060935759</v>
       </c>
     </row>
     <row r="46">
@@ -1849,25 +2534,40 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>410</v>
+        <v>594</v>
       </c>
       <c r="D46" t="n">
-        <v>6697226363.963269</v>
+        <v>12518801954.49249</v>
       </c>
       <c r="E46" t="n">
-        <v>0.002323942061119299</v>
+        <v>0.001716169518917231</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1603574138958117</v>
+        <v>0.1242864665209952</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2038531200586402</v>
+        <v>0.1208988446909218</v>
       </c>
       <c r="I46" t="n">
-        <v>1.742011808120239</v>
+        <v>8</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.3684989802639024</v>
+      </c>
+      <c r="L46" t="n">
+        <v>3.29296532684859</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.6290344741396661</v>
+      </c>
+      <c r="N46" t="n">
+        <v>9.287724155944732</v>
       </c>
     </row>
     <row r="47">
@@ -1880,25 +2580,40 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>475</v>
+        <v>419</v>
       </c>
       <c r="D47" t="n">
-        <v>4439574268.005797</v>
+        <v>7982850251.879078</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004545676530028684</v>
+        <v>0.003104837579760703</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2802544061412636</v>
+        <v>0.1374852809924193</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.57397656929232</v>
+        <v>0.1534298155448047</v>
       </c>
       <c r="I47" t="n">
-        <v>2.018184411846618</v>
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.2483044215716604</v>
+      </c>
+      <c r="L47" t="n">
+        <v>8.519944361659183</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.7164140398831418</v>
+      </c>
+      <c r="N47" t="n">
+        <v>5.808336436003652</v>
       </c>
     </row>
     <row r="48">
@@ -1911,25 +2626,40 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D48" t="n">
-        <v>10811283795.27626</v>
+        <v>10576937600.28843</v>
       </c>
       <c r="E48" t="n">
-        <v>0.004913119409870457</v>
+        <v>0.004633460584861609</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1417355402944395</v>
+        <v>0.144380578548403</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0.1463671735019206</v>
+        <v>0.1704245785447845</v>
       </c>
       <c r="I48" t="n">
-        <v>2.485553433537414</v>
+        <v>9</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.981661644880977</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.2381511415479453</v>
+      </c>
+      <c r="L48" t="n">
+        <v>2.995364454910453</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.8818810547557475</v>
+      </c>
+      <c r="N48" t="n">
+        <v>14.6422566402045</v>
       </c>
     </row>
     <row r="49">
@@ -1942,25 +2672,40 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="D49" t="n">
-        <v>4116253938.527147</v>
+        <v>8108657086.614395</v>
       </c>
       <c r="E49" t="n">
-        <v>0.003272627013291664</v>
+        <v>0.001218675383278662</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2799952620057236</v>
+        <v>0.1392286142996057</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.5731765882461031</v>
+        <v>0.1577265897079289</v>
       </c>
       <c r="I49" t="n">
-        <v>1.869476086763183</v>
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.3392114087631368</v>
+      </c>
+      <c r="L49" t="n">
+        <v>8.610851348850659</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.7232133415746087</v>
+      </c>
+      <c r="N49" t="n">
+        <v>5.853415482641516</v>
       </c>
     </row>
     <row r="50">
@@ -1973,25 +2718,40 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D50" t="n">
-        <v>9041939105.068338</v>
+        <v>4367823431.437337</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004131512628833012</v>
+        <v>0.003098710838858551</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1532478038060761</v>
+        <v>0.3124444500612316</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.1819056686685963</v>
+        <v>0.5846497286604579</v>
       </c>
       <c r="I50" t="n">
-        <v>2.247620113403918</v>
+        <v>10</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.9850244701715835</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.2725425206533321</v>
+      </c>
+      <c r="L50" t="n">
+        <v>2.888264740202861</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.8197557456664011</v>
+      </c>
+      <c r="N50" t="n">
+        <v>13.50685017312516</v>
       </c>
     </row>
     <row r="51">
@@ -2004,25 +2764,40 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>477</v>
+        <v>514</v>
       </c>
       <c r="D51" t="n">
-        <v>6478949418.364532</v>
+        <v>6074281465.358902</v>
       </c>
       <c r="E51" t="n">
-        <v>0.002903440489956149</v>
+        <v>0.003893258485698142</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1928474740763443</v>
+        <v>0.2216503248455329</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.304150324472329</v>
+        <v>0.3608704606443497</v>
       </c>
       <c r="I51" t="n">
-        <v>2.026682030422815</v>
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.1070122309302951</v>
+      </c>
+      <c r="L51" t="n">
+        <v>8.378652171017817</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.7666088739151308</v>
+      </c>
+      <c r="N51" t="n">
+        <v>6.953525307284798</v>
       </c>
     </row>
     <row r="52">
@@ -2035,25 +2810,40 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>535</v>
+        <v>428</v>
       </c>
       <c r="D52" t="n">
-        <v>8319133104.727109</v>
+        <v>10758986537.14198</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0032647394106087</v>
+        <v>0.002978364556538109</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1684518846325117</v>
+        <v>0.1042011639413956</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.2288408480464717</v>
+        <v>0.07139482338484178</v>
       </c>
       <c r="I52" t="n">
-        <v>2.273112969132507</v>
+        <v>2</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.5331232883015293</v>
+      </c>
+      <c r="L52" t="n">
+        <v>6.382055981470905</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.6957598408775879</v>
+      </c>
+      <c r="N52" t="n">
+        <v>7.533140836080853</v>
       </c>
     </row>
     <row r="53">
@@ -2066,25 +2856,40 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>455</v>
+        <v>528</v>
       </c>
       <c r="D53" t="n">
-        <v>8577808782.457611</v>
+        <v>14721135731.37343</v>
       </c>
       <c r="E53" t="n">
-        <v>0.001614771459233107</v>
+        <v>0.004748837903182749</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1389425295230856</v>
+        <v>0.09394913172714614</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.1377451158415914</v>
+        <v>0.0461267539020198</v>
       </c>
       <c r="I53" t="n">
-        <v>1.933208226084655</v>
+        <v>7</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.2064432452647268</v>
+      </c>
+      <c r="L53" t="n">
+        <v>3.332829276141984</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.6112702109306472</v>
+      </c>
+      <c r="N53" t="n">
+        <v>8.89257494247096</v>
       </c>
     </row>
     <row r="54">
@@ -2097,25 +2902,40 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>553</v>
+        <v>608</v>
       </c>
       <c r="D54" t="n">
-        <v>8302593780.097054</v>
+        <v>11019378767.86708</v>
       </c>
       <c r="E54" t="n">
-        <v>0.004702064893980365</v>
+        <v>0.003825806088110311</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1744662822686078</v>
+        <v>0.1445262163638525</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0.2474073654915264</v>
+        <v>0.1707835304445835</v>
       </c>
       <c r="I54" t="n">
-        <v>2.349591536318274</v>
+        <v>11</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.9870674453655559</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.326261356648926</v>
+      </c>
+      <c r="L54" t="n">
+        <v>2.820254636847848</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.8704001053184037</v>
+      </c>
+      <c r="N54" t="n">
+        <v>14.58774746952023</v>
       </c>
     </row>
     <row r="55">
@@ -2128,25 +2948,40 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>567</v>
+        <v>505</v>
       </c>
       <c r="D55" t="n">
-        <v>11379508929.52484</v>
+        <v>6891578877.483022</v>
       </c>
       <c r="E55" t="n">
-        <v>0.001483566800546472</v>
+        <v>0.001561774962723762</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1305147822457059</v>
+        <v>0.1919432358703724</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1117285591861272</v>
+        <v>0.2876517296971918</v>
       </c>
       <c r="I55" t="n">
-        <v>2.409074866351647</v>
+        <v>8</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.3004780897265284</v>
+      </c>
+      <c r="L55" t="n">
+        <v>3.224944436311216</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.5486556650159884</v>
+      </c>
+      <c r="N55" t="n">
+        <v>7.748168864008551</v>
       </c>
     </row>
     <row r="56">
@@ -2159,25 +2994,40 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>586</v>
+        <v>478</v>
       </c>
       <c r="D56" t="n">
-        <v>8097084893.508099</v>
+        <v>11248785672.80259</v>
       </c>
       <c r="E56" t="n">
-        <v>0.001146718870240128</v>
+        <v>0.004915031371577813</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1895697723548222</v>
+        <v>0.1113069851643864</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2940320200511024</v>
+        <v>0.08890846171944249</v>
       </c>
       <c r="I56" t="n">
-        <v>2.489802242825512</v>
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.2706123341327289</v>
+      </c>
+      <c r="L56" t="n">
+        <v>8.542252274220251</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.7485050781552089</v>
+      </c>
+      <c r="N56" t="n">
+        <v>6.427849288883928</v>
       </c>
     </row>
     <row r="57">
@@ -2190,25 +3040,40 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="D57" t="n">
-        <v>5618229744.35919</v>
+        <v>13091015468.68541</v>
       </c>
       <c r="E57" t="n">
-        <v>0.001892700453050512</v>
+        <v>0.002277044999587436</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1944181138367785</v>
+        <v>0.0752340903084199</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.3089989082003126</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1.771753473136926</v>
+        <v>2</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.2437467094955434</v>
+      </c>
+      <c r="L57" t="n">
+        <v>6.092679402664919</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.6619932507303276</v>
+      </c>
+      <c r="N57" t="n">
+        <v>7.147185611941632</v>
       </c>
     </row>
     <row r="58">
@@ -2221,25 +3086,40 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>435</v>
+        <v>618</v>
       </c>
       <c r="D58" t="n">
-        <v>5471359486.550277</v>
+        <v>7102304101.670134</v>
       </c>
       <c r="E58" t="n">
-        <v>0.003599858423189042</v>
+        <v>0.003210105022742737</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2082543932273074</v>
+        <v>0.2279236423598557</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0.3517116681843119</v>
+        <v>0.376332236371058</v>
       </c>
       <c r="I58" t="n">
-        <v>1.848232040322692</v>
+        <v>11</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.9866915785039251</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.4723146256477413</v>
+      </c>
+      <c r="L58" t="n">
+        <v>2.966307905846663</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.877346922329218</v>
+      </c>
+      <c r="N58" t="n">
+        <v>14.5806305407377</v>
       </c>
     </row>
     <row r="59">
@@ -2252,25 +3132,40 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>520</v>
+        <v>603</v>
       </c>
       <c r="D59" t="n">
-        <v>7591060572.090821</v>
+        <v>11169772951.98366</v>
       </c>
       <c r="E59" t="n">
-        <v>0.002381176626755057</v>
+        <v>0.001921373897318952</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1794324768014384</v>
+        <v>0.1414077239340389</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.2627380674185084</v>
+        <v>0.1630974169256792</v>
       </c>
       <c r="I59" t="n">
-        <v>2.209380829811034</v>
+        <v>11</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.3582604734970845</v>
+      </c>
+      <c r="L59" t="n">
+        <v>2.852253753696006</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.5096949806516792</v>
+      </c>
+      <c r="N59" t="n">
+        <v>7.341645859337577</v>
       </c>
     </row>
     <row r="60">
@@ -2283,25 +3178,40 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>586</v>
+        <v>388</v>
       </c>
       <c r="D60" t="n">
-        <v>6565615632.28003</v>
+        <v>4263078983.537536</v>
       </c>
       <c r="E60" t="n">
-        <v>0.004383659442112248</v>
+        <v>0.004442299867078091</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2337880597903591</v>
+        <v>0.2384012409633206</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.4305344022905369</v>
+        <v>0.4021562568181934</v>
       </c>
       <c r="I60" t="n">
-        <v>2.489802242825512</v>
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.04139375179483476</v>
+      </c>
+      <c r="L60" t="n">
+        <v>8.313033691882358</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.6981147249380161</v>
+      </c>
+      <c r="N60" t="n">
+        <v>5.649260806877964</v>
       </c>
     </row>
     <row r="61">
@@ -2314,25 +3224,40 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="D61" t="n">
-        <v>5901272610.243767</v>
+        <v>4827601168.922874</v>
       </c>
       <c r="E61" t="n">
-        <v>0.00241419510991461</v>
+        <v>0.002019913043639493</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1793229409810788</v>
+        <v>0.2078105325804779</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.2623999290308237</v>
+        <v>0.3267596789697496</v>
       </c>
       <c r="I61" t="n">
-        <v>1.71651895239165</v>
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.07974133220210222</v>
+      </c>
+      <c r="L61" t="n">
+        <v>8.351381272289625</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.6950563066102257</v>
+      </c>
+      <c r="N61" t="n">
+        <v>5.549744859914888</v>
       </c>
     </row>
     <row r="62">
@@ -2345,25 +3270,40 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="D62" t="n">
-        <v>6469996272.875911</v>
+        <v>4370094768.864022</v>
       </c>
       <c r="E62" t="n">
-        <v>0.003758092146377222</v>
+        <v>0.003771226796759389</v>
       </c>
       <c r="F62" t="n">
-        <v>0.2327898172544877</v>
+        <v>0.3488448330369458</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.4274528156416234</v>
+        <v>0.6743653466969752</v>
       </c>
       <c r="I62" t="n">
-        <v>2.443065340656433</v>
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.7127287748768524</v>
+      </c>
+      <c r="L62" t="n">
+        <v>8.984368714964376</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.7983145900577505</v>
+      </c>
+      <c r="N62" t="n">
+        <v>6.981923086190635</v>
       </c>
     </row>
     <row r="63">
@@ -2376,25 +3316,40 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>561</v>
+        <v>596</v>
       </c>
       <c r="D63" t="n">
-        <v>4880404137.748857</v>
+        <v>3245884900.800157</v>
       </c>
       <c r="E63" t="n">
-        <v>0.001541526426544644</v>
+        <v>0.002427678262990123</v>
       </c>
       <c r="F63" t="n">
-        <v>0.3010975625223148</v>
+        <v>0.4809648178267667</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0.6383196423602291</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>2.383582010623059</v>
+        <v>8</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.485243373806051</v>
+      </c>
+      <c r="L63" t="n">
+        <v>3.409709720390739</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.6305821443247949</v>
+      </c>
+      <c r="N63" t="n">
+        <v>9.201933166105158</v>
       </c>
     </row>
     <row r="64">
@@ -2407,25 +3362,40 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>522</v>
+        <v>476</v>
       </c>
       <c r="D64" t="n">
-        <v>10611246774.81738</v>
+        <v>11454222841.49213</v>
       </c>
       <c r="E64" t="n">
-        <v>0.001804699437831559</v>
+        <v>0.004610314179341419</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1288558836691018</v>
+        <v>0.1088532724789888</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1066075194369016</v>
+        <v>0.08286082342395101</v>
       </c>
       <c r="I64" t="n">
-        <v>2.217878448387231</v>
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.3847609455365925</v>
+      </c>
+      <c r="L64" t="n">
+        <v>8.656400885624116</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.7474689533332537</v>
+      </c>
+      <c r="N64" t="n">
+        <v>6.292978181040958</v>
       </c>
     </row>
     <row r="65">
@@ -2438,25 +3408,40 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>461</v>
+        <v>383</v>
       </c>
       <c r="D65" t="n">
-        <v>4640153249.022244</v>
+        <v>7177329921.044223</v>
       </c>
       <c r="E65" t="n">
-        <v>0.00233644233676065</v>
+        <v>0.004978969050527762</v>
       </c>
       <c r="F65" t="n">
-        <v>0.2602368338275138</v>
+        <v>0.1397771010997418</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.5121820841155599</v>
+        <v>0.1590784390083033</v>
       </c>
       <c r="I65" t="n">
-        <v>1.958701081813244</v>
+        <v>3</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.0515238373986573</v>
+      </c>
+      <c r="L65" t="n">
+        <v>4.827157383447849</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.6353789393430553</v>
+      </c>
+      <c r="N65" t="n">
+        <v>7.880421403413257</v>
       </c>
     </row>
     <row r="66">
@@ -2469,25 +3454,40 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D66" t="n">
-        <v>4302164472.182896</v>
+        <v>4063341973.087187</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001461693853076115</v>
+        <v>0.004938173837721294</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2861613748056777</v>
+        <v>0.2997572830609168</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.592211452216759</v>
+        <v>0.5533798096234753</v>
       </c>
       <c r="I66" t="n">
-        <v>1.996940365406128</v>
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.5605239361523563</v>
+      </c>
+      <c r="L66" t="n">
+        <v>8.832163876239878</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.7417094468884609</v>
+      </c>
+      <c r="N66" t="n">
+        <v>6.002025061529338</v>
       </c>
     </row>
     <row r="67">
@@ -2500,25 +3500,40 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>459</v>
+        <v>385</v>
       </c>
       <c r="D67" t="n">
-        <v>8654309055.5047</v>
+        <v>5739641655.841431</v>
       </c>
       <c r="E67" t="n">
-        <v>0.004617733709396809</v>
+        <v>0.001302970660678709</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1389250143817385</v>
+        <v>0.1757017616201963</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.1376910463907419</v>
+        <v>0.2476215492139016</v>
       </c>
       <c r="I67" t="n">
-        <v>1.950203463237048</v>
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.1862495607038384</v>
+      </c>
+      <c r="L67" t="n">
+        <v>3.312635591581095</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.4472649630788246</v>
+      </c>
+      <c r="N67" t="n">
+        <v>5.632663669995395</v>
       </c>
     </row>
     <row r="68">
@@ -2531,25 +3546,40 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>446</v>
+        <v>513</v>
       </c>
       <c r="D68" t="n">
-        <v>7340461036.395692</v>
+        <v>7669110875.728116</v>
       </c>
       <c r="E68" t="n">
-        <v>0.004903775497223803</v>
+        <v>0.002442647305339544</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1591518481206505</v>
+        <v>0.1752154965255243</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.2001315240901002</v>
+        <v>0.2464230570571791</v>
       </c>
       <c r="I68" t="n">
-        <v>1.894968942491772</v>
+        <v>10</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.3100748008714284</v>
+      </c>
+      <c r="L68" t="n">
+        <v>2.925797020420957</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.4410364609282145</v>
+      </c>
+      <c r="N68" t="n">
+        <v>5.894932198143332</v>
       </c>
     </row>
     <row r="69">
@@ -2562,25 +3592,40 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>544</v>
+        <v>470</v>
       </c>
       <c r="D69" t="n">
-        <v>10522552230.63866</v>
+        <v>8411229908.321834</v>
       </c>
       <c r="E69" t="n">
-        <v>0.001009454970858385</v>
+        <v>0.001473085525823155</v>
       </c>
       <c r="F69" t="n">
-        <v>0.135418492469057</v>
+        <v>0.1463654320971504</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.1268663713023274</v>
+        <v>0.1753166249542044</v>
       </c>
       <c r="I69" t="n">
-        <v>2.31135225272539</v>
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.08114164213517597</v>
+      </c>
+      <c r="L69" t="n">
+        <v>8.352781582222699</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.7443402992173345</v>
+      </c>
+      <c r="N69" t="n">
+        <v>6.534024402123991</v>
       </c>
     </row>
     <row r="70">
@@ -2593,25 +3638,40 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>507</v>
+        <v>403</v>
       </c>
       <c r="D70" t="n">
-        <v>8892207339.020885</v>
+        <v>9587793776.905956</v>
       </c>
       <c r="E70" t="n">
-        <v>0.002152856045830613</v>
+        <v>0.002059327837050325</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1493477017986659</v>
+        <v>0.1100997992408483</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>0.1698660071198672</v>
+        <v>0.08593312403446632</v>
       </c>
       <c r="I70" t="n">
-        <v>0.2146688795062525</v>
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.06589521834262357</v>
+      </c>
+      <c r="L70" t="n">
+        <v>8.337535158430146</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.7071072606511236</v>
+      </c>
+      <c r="N70" t="n">
+        <v>5.804610054592326</v>
       </c>
     </row>
     <row r="71">
@@ -2624,25 +3684,40 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>417</v>
+        <v>573</v>
       </c>
       <c r="D71" t="n">
-        <v>5367403518.495196</v>
+        <v>3272517992.465069</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004135454195375603</v>
+        <v>0.002557261864882081</v>
       </c>
       <c r="F71" t="n">
-        <v>0.2035035424924103</v>
+        <v>0.4586408610910092</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.3370457351374289</v>
+        <v>0.9449783927574277</v>
       </c>
       <c r="I71" t="n">
-        <v>1.771753473136926</v>
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.8781069843706988</v>
+      </c>
+      <c r="L71" t="n">
+        <v>9.149746924458222</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.7942855930657178</v>
+      </c>
+      <c r="N71" t="n">
+        <v>6.735964936856133</v>
       </c>
     </row>
     <row r="72">
@@ -2655,25 +3730,40 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>467</v>
+        <v>532</v>
       </c>
       <c r="D72" t="n">
-        <v>4055066792.356092</v>
+        <v>12010482239.46532</v>
       </c>
       <c r="E72" t="n">
-        <v>0.00148032754405016</v>
+        <v>0.001994795644767385</v>
       </c>
       <c r="F72" t="n">
-        <v>0.301660907856282</v>
+        <v>0.1160249398996685</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.6400586961447542</v>
+        <v>0.1005367521477753</v>
       </c>
       <c r="I72" t="n">
-        <v>0.1499133680122791</v>
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.3187506104630226</v>
+      </c>
+      <c r="L72" t="n">
+        <v>8.590390550550545</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.7752984983420966</v>
+      </c>
+      <c r="N72" t="n">
+        <v>6.915579416291388</v>
       </c>
     </row>
     <row r="73">
@@ -2686,25 +3776,40 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>509</v>
+        <v>571</v>
       </c>
       <c r="D73" t="n">
-        <v>7996729888.470816</v>
+        <v>8634209847.139984</v>
       </c>
       <c r="E73" t="n">
-        <v>0.004150488471087899</v>
+        <v>0.003990783982156835</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1667268406704876</v>
+        <v>0.1732262380089627</v>
       </c>
       <c r="G73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0.2235156167012432</v>
+        <v>0.2415201537727054</v>
       </c>
       <c r="I73" t="n">
-        <v>2.162643927641955</v>
+        <v>9</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.9874894949781455</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.5603368107841811</v>
+      </c>
+      <c r="L73" t="n">
+        <v>3.317550124146689</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.8758697280777386</v>
+      </c>
+      <c r="N73" t="n">
+        <v>14.19984443740808</v>
       </c>
     </row>
     <row r="74">
@@ -2717,25 +3822,40 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>453</v>
+        <v>388</v>
       </c>
       <c r="D74" t="n">
-        <v>3804946966.84277</v>
+        <v>3549553970.54097</v>
       </c>
       <c r="E74" t="n">
-        <v>0.001253580176352478</v>
+        <v>0.00196962289377296</v>
       </c>
       <c r="F74" t="n">
-        <v>0.3118528800375348</v>
+        <v>0.2863242335332367</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.6715214361816051</v>
+        <v>0.5202715222382841</v>
       </c>
       <c r="I74" t="n">
-        <v>1.924710607508459</v>
+        <v>3</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.1692360377066197</v>
+      </c>
+      <c r="L74" t="n">
+        <v>4.944869583755811</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.6391433386543411</v>
+      </c>
+      <c r="N74" t="n">
+        <v>7.837997189331012</v>
       </c>
     </row>
     <row r="75">
@@ -2748,25 +3868,40 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>568</v>
+        <v>396</v>
       </c>
       <c r="D75" t="n">
-        <v>7996169006.318279</v>
+        <v>6397222275.936137</v>
       </c>
       <c r="E75" t="n">
-        <v>0.002257239628741936</v>
+        <v>0.001746550265105777</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1860657921092444</v>
+        <v>0.1621451303797647</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2832151911194397</v>
+        <v>0.2142086713592939</v>
       </c>
       <c r="I75" t="n">
-        <v>2.413323675639746</v>
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.1726936799116815</v>
+      </c>
+      <c r="L75" t="n">
+        <v>8.444333619999204</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.7029441349063799</v>
+      </c>
+      <c r="N75" t="n">
+        <v>5.614549078128393</v>
       </c>
     </row>
     <row r="76">
@@ -2779,25 +3914,40 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>444</v>
+        <v>603</v>
       </c>
       <c r="D76" t="n">
-        <v>5890666917.550791</v>
+        <v>13736616884.1293</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001551751745503338</v>
+        <v>0.002500517279637018</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1974325108308031</v>
+        <v>0.114984073831518</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0.318304387778182</v>
+        <v>0.09797134115581783</v>
       </c>
       <c r="I76" t="n">
-        <v>0.2018158209926703</v>
+        <v>10</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.9847395858513828</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.285652438325087</v>
+      </c>
+      <c r="L76" t="n">
+        <v>2.901374657874616</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.8815719190129455</v>
+      </c>
+      <c r="N76" t="n">
+        <v>14.73006372238429</v>
       </c>
     </row>
     <row r="77">
@@ -2810,25 +3960,40 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>520</v>
+        <v>459</v>
       </c>
       <c r="D77" t="n">
-        <v>5813051921.94813</v>
+        <v>15002432351.62891</v>
       </c>
       <c r="E77" t="n">
-        <v>0.003583660996018748</v>
+        <v>0.001640206356068186</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2343145766266483</v>
+        <v>0.08014033870110793</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.4321597660621985</v>
+        <v>0.01209237570616627</v>
       </c>
       <c r="I77" t="n">
-        <v>0.2336273116219525</v>
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.1374391805008106</v>
+      </c>
+      <c r="L77" t="n">
+        <v>8.409079120588334</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.7385234028835896</v>
+      </c>
+      <c r="N77" t="n">
+        <v>6.361388937083458</v>
       </c>
     </row>
     <row r="78">
@@ -2841,25 +4006,40 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="D78" t="n">
-        <v>10994743890.48448</v>
+        <v>5565660716.331587</v>
       </c>
       <c r="E78" t="n">
-        <v>0.002291478011280351</v>
+        <v>0.002681387335630043</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1138788163209164</v>
+        <v>0.2155504406655115</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.06037313338185227</v>
+        <v>0.34583614412282</v>
       </c>
       <c r="I78" t="n">
-        <v>0.1491503479601562</v>
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.0632872528968952</v>
+      </c>
+      <c r="L78" t="n">
+        <v>8.334927192984418</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.737989267264883</v>
+      </c>
+      <c r="N78" t="n">
+        <v>6.424858152313242</v>
       </c>
     </row>
     <row r="79">
@@ -2872,25 +4052,40 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>425</v>
+        <v>533</v>
       </c>
       <c r="D79" t="n">
-        <v>4524916821.927709</v>
+        <v>11127511013.63393</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003928845664380482</v>
+        <v>0.002286660564860322</v>
       </c>
       <c r="F79" t="n">
-        <v>0.246024577646432</v>
+        <v>0.1254669501822458</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.4683086792818018</v>
+        <v>0.1238083696077823</v>
       </c>
       <c r="I79" t="n">
-        <v>1.805743947441711</v>
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.365173325936356</v>
+      </c>
+      <c r="L79" t="n">
+        <v>8.636813266023879</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.7757746328473359</v>
+      </c>
+      <c r="N79" t="n">
+        <v>6.878679390922841</v>
       </c>
     </row>
     <row r="80">
@@ -2903,25 +4098,40 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>462</v>
+        <v>562</v>
       </c>
       <c r="D80" t="n">
-        <v>6494549760.331527</v>
+        <v>9837725824.814072</v>
       </c>
       <c r="E80" t="n">
-        <v>0.002232241306376718</v>
+        <v>0.00240263065359294</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1863344226556862</v>
+        <v>0.1496379555818554</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.2840444568295838</v>
+        <v>0.1833823770965708</v>
       </c>
       <c r="I80" t="n">
-        <v>1.962949891101342</v>
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.5219558866169458</v>
+      </c>
+      <c r="L80" t="n">
+        <v>8.793595826704468</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.7892955840733226</v>
+      </c>
+      <c r="N80" t="n">
+        <v>6.992315854761983</v>
       </c>
     </row>
     <row r="81">
@@ -2934,25 +4144,40 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>424</v>
+        <v>387</v>
       </c>
       <c r="D81" t="n">
-        <v>5839060392.576415</v>
+        <v>6982951904.911606</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001917182933926802</v>
+        <v>0.001780150818363885</v>
       </c>
       <c r="F81" t="n">
-        <v>0.190205492892659</v>
+        <v>0.145168396375033</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.2959944969557036</v>
+        <v>0.1723663043574898</v>
       </c>
       <c r="I81" t="n">
-        <v>1.801495138153613</v>
+        <v>7</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.2065796588510976</v>
+      </c>
+      <c r="L81" t="n">
+        <v>3.332965689728355</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.4506741877036524</v>
+      </c>
+      <c r="N81" t="n">
+        <v>5.680518064344692</v>
       </c>
     </row>
     <row r="82">
@@ -2965,25 +4190,40 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>438</v>
+        <v>496</v>
       </c>
       <c r="D82" t="n">
-        <v>5270269673.274509</v>
+        <v>12219674640.62369</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003206823848763001</v>
+        <v>0.003856824950587691</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2176914828130924</v>
+        <v>0.1063217702769939</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.3808440766192741</v>
+        <v>0.07662145817429676</v>
       </c>
       <c r="I82" t="n">
-        <v>0.1947058901207905</v>
+        <v>11</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.2941358521968019</v>
+      </c>
+      <c r="L82" t="n">
+        <v>2.788129132395723</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.2648401985945514</v>
+      </c>
+      <c r="N82" t="n">
+        <v>2.508674839495304</v>
       </c>
     </row>
     <row r="83">
@@ -2996,25 +4236,40 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>437</v>
+        <v>568</v>
       </c>
       <c r="D83" t="n">
-        <v>9586266161.698313</v>
+        <v>5350925742.908251</v>
       </c>
       <c r="E83" t="n">
-        <v>0.001812576781077812</v>
+        <v>0.001074467946424377</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1194076411703979</v>
+        <v>0.2780478727390014</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0.07744068182635129</v>
+        <v>0.499872868074579</v>
       </c>
       <c r="I83" t="n">
-        <v>1.856729658898889</v>
+        <v>10</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.9866057908075861</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.4120651826930554</v>
+      </c>
+      <c r="L83" t="n">
+        <v>3.027787402242584</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.8572063116927341</v>
+      </c>
+      <c r="N83" t="n">
+        <v>14.1163388316121</v>
       </c>
     </row>
     <row r="84">
@@ -3027,25 +4282,40 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>526</v>
+        <v>605</v>
       </c>
       <c r="D84" t="n">
-        <v>9704513407.953444</v>
+        <v>3495526207.598216</v>
       </c>
       <c r="E84" t="n">
-        <v>0.001655168646819171</v>
+        <v>0.002189648524973373</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1419750874753606</v>
+        <v>0.4533597678527698</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1471066585148157</v>
+        <v>0.9319621411401515</v>
       </c>
       <c r="I84" t="n">
-        <v>2.234873685539624</v>
+        <v>16</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.9887609215012991</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.3536885988423997</v>
+      </c>
+      <c r="L84" t="n">
+        <v>2.42159858386428</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.7784214418733486</v>
+      </c>
+      <c r="N84" t="n">
+        <v>13.14683025360269</v>
       </c>
     </row>
     <row r="85">
@@ -3058,25 +4328,40 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D85" t="n">
-        <v>8990263013.607319</v>
+        <v>4311182575.587713</v>
       </c>
       <c r="E85" t="n">
-        <v>0.002764320414065716</v>
+        <v>0.002715974243362818</v>
       </c>
       <c r="F85" t="n">
-        <v>0.140726179877618</v>
+        <v>0.2916385882424847</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1432512658215251</v>
+        <v>0.5333697530322723</v>
       </c>
       <c r="I85" t="n">
-        <v>2.052174886151403</v>
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.09019599151185029</v>
+      </c>
+      <c r="L85" t="n">
+        <v>8.361835931599373</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.7495378671257193</v>
+      </c>
+      <c r="N85" t="n">
+        <v>6.628921410915014</v>
       </c>
     </row>
     <row r="86">
@@ -3089,25 +4374,40 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>514</v>
+        <v>589</v>
       </c>
       <c r="D86" t="n">
-        <v>5856257776.696735</v>
+        <v>5836268443.987706</v>
       </c>
       <c r="E86" t="n">
-        <v>0.003747675497186098</v>
+        <v>0.001306615275381153</v>
       </c>
       <c r="F86" t="n">
-        <v>0.2299021852073301</v>
+        <v>0.2643505391855909</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4185386609710566</v>
+        <v>0.4661132027980783</v>
       </c>
       <c r="I86" t="n">
-        <v>2.183887974082446</v>
+        <v>13</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.9875577482425203</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.4110601237850071</v>
+      </c>
+      <c r="L86" t="n">
+        <v>2.705200272720503</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.8220011193220734</v>
+      </c>
+      <c r="N86" t="n">
+        <v>13.73482211372097</v>
       </c>
     </row>
     <row r="87">
@@ -3120,25 +4420,40 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>415</v>
+        <v>594</v>
       </c>
       <c r="D87" t="n">
-        <v>10204621980.98361</v>
+        <v>12063725961.73826</v>
       </c>
       <c r="E87" t="n">
-        <v>0.00213187991332115</v>
+        <v>0.001730716117933279</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1065249503632491</v>
+        <v>0.128974884288221</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.03767166120578774</v>
+        <v>0.1324543356834391</v>
       </c>
       <c r="I87" t="n">
-        <v>1.76325585456073</v>
+        <v>10</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.2744080797971826</v>
+      </c>
+      <c r="L87" t="n">
+        <v>2.890130299346711</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.5500302690086041</v>
+      </c>
+      <c r="N87" t="n">
+        <v>8.11047508082537</v>
       </c>
     </row>
     <row r="88">
@@ -3151,25 +4466,40 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D88" t="n">
-        <v>10343135297.29911</v>
+        <v>12017566588.09624</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004376081163326431</v>
+        <v>0.003298927118167436</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1137088586965612</v>
+        <v>0.09633983481704239</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.05984847216248556</v>
+        <v>0.05201909315006984</v>
       </c>
       <c r="I88" t="n">
-        <v>1.907715370356067</v>
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.2480176285071592</v>
+      </c>
+      <c r="L88" t="n">
+        <v>8.519657568594683</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.7293176213304032</v>
+      </c>
+      <c r="N88" t="n">
+        <v>6.066694858013381</v>
       </c>
     </row>
     <row r="89">
@@ -3182,25 +4512,40 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>509</v>
+        <v>578</v>
       </c>
       <c r="D89" t="n">
-        <v>11380697740.12855</v>
+        <v>8822356436.332214</v>
       </c>
       <c r="E89" t="n">
-        <v>0.002511555927821913</v>
+        <v>0.001280075440552624</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1171518249974135</v>
+        <v>0.1716103209982559</v>
       </c>
       <c r="G89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.07047695031694996</v>
+        <v>0.2375374211347547</v>
       </c>
       <c r="I89" t="n">
-        <v>0.2167332685772594</v>
+        <v>8</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.9864992302901583</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.3007701503922216</v>
+      </c>
+      <c r="L89" t="n">
+        <v>3.22523649697691</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.8956108650644254</v>
+      </c>
+      <c r="N89" t="n">
+        <v>14.6869808043116</v>
       </c>
     </row>
     <row r="90">
@@ -3213,25 +4558,40 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="D90" t="n">
-        <v>8302036242.192459</v>
+        <v>7121410592.150765</v>
       </c>
       <c r="E90" t="n">
-        <v>0.00104923938025695</v>
+        <v>0.003534428900257333</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1438733589152056</v>
+        <v>0.1585299815803823</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1529666451561724</v>
+        <v>0.2052984544242974</v>
       </c>
       <c r="I90" t="n">
-        <v>1.937457035372753</v>
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.5156608453688063</v>
+      </c>
+      <c r="L90" t="n">
+        <v>8.787300785456329</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.7232133415746087</v>
+      </c>
+      <c r="N90" t="n">
+        <v>5.676966046035846</v>
       </c>
     </row>
     <row r="91">
@@ -3244,25 +4604,40 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="D91" t="n">
-        <v>10891022844.43195</v>
+        <v>6231385934.904152</v>
       </c>
       <c r="E91" t="n">
-        <v>0.001304259300510288</v>
+        <v>0.001962726968511287</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1156848725777983</v>
+        <v>0.1908408614749508</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.06594845065035149</v>
+        <v>0.2849347198168599</v>
       </c>
       <c r="I91" t="n">
-        <v>2.043677267575207</v>
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.0377877268563677</v>
+      </c>
+      <c r="L91" t="n">
+        <v>8.30942766694389</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.7358436517073774</v>
+      </c>
+      <c r="N91" t="n">
+        <v>6.407445367203659</v>
       </c>
     </row>
     <row r="92">
@@ -3275,25 +4650,40 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>549</v>
+        <v>379</v>
       </c>
       <c r="D92" t="n">
-        <v>4342274573.55057</v>
+        <v>11537485348.61128</v>
       </c>
       <c r="E92" t="n">
-        <v>0.004153207347415489</v>
+        <v>0.002117266920926892</v>
       </c>
       <c r="F92" t="n">
-        <v>0.3311732332080848</v>
+        <v>0.08604550991863173</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.7311635975233807</v>
+        <v>0.02664678536018188</v>
       </c>
       <c r="I92" t="n">
-        <v>2.332596299165881</v>
+        <v>6</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.128864271289646</v>
+      </c>
+      <c r="L92" t="n">
+        <v>3.505747136162988</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.503616151827407</v>
+      </c>
+      <c r="N92" t="n">
+        <v>6.566575900385153</v>
       </c>
     </row>
     <row r="93">
@@ -3306,25 +4696,40 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>481</v>
+        <v>396</v>
       </c>
       <c r="D93" t="n">
-        <v>5755292950.185351</v>
+        <v>10897619359.01158</v>
       </c>
       <c r="E93" t="n">
-        <v>0.003862009272679614</v>
+        <v>0.001482920202852919</v>
       </c>
       <c r="F93" t="n">
-        <v>0.2189161526450923</v>
+        <v>0.09518394851461227</v>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.3846246470397921</v>
+        <v>0.04917019306922041</v>
       </c>
       <c r="I93" t="n">
-        <v>0.2086564537233949</v>
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.4213698921071654</v>
+      </c>
+      <c r="L93" t="n">
+        <v>8.693009832194688</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.7029441349063799</v>
+      </c>
+      <c r="N93" t="n">
+        <v>5.365872865932909</v>
       </c>
     </row>
     <row r="94">
@@ -3337,25 +4742,40 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>454</v>
+        <v>512</v>
       </c>
       <c r="D94" t="n">
-        <v>8878859173.471289</v>
+        <v>8870225449.014172</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004689348671871648</v>
+        <v>0.001073756052684995</v>
       </c>
       <c r="F94" t="n">
-        <v>0.133936470526885</v>
+        <v>0.1511943171804107</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.1222913518393394</v>
+        <v>0.1872183241742665</v>
       </c>
       <c r="I94" t="n">
-        <v>1.928959416796557</v>
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.4811734120426803</v>
+      </c>
+      <c r="L94" t="n">
+        <v>8.752813352130204</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.7656290672410925</v>
+      </c>
+      <c r="N94" t="n">
+        <v>6.559767992691645</v>
       </c>
     </row>
     <row r="95">
@@ -3368,25 +4788,40 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>583</v>
+        <v>504</v>
       </c>
       <c r="D95" t="n">
-        <v>11407689497.55054</v>
+        <v>9762542696.900553</v>
       </c>
       <c r="E95" t="n">
-        <v>0.001191019939142208</v>
+        <v>0.002183530205805787</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1338662285932573</v>
+        <v>0.1352283519762872</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1220745141500174</v>
+        <v>0.1478671877647088</v>
       </c>
       <c r="I95" t="n">
-        <v>2.477055814961218</v>
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.4677559338858057</v>
+      </c>
+      <c r="L95" t="n">
+        <v>8.739395873973329</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.7616802796124458</v>
+      </c>
+      <c r="N95" t="n">
+        <v>6.494209718275586</v>
       </c>
     </row>
     <row r="96">
@@ -3399,25 +4834,40 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="D96" t="n">
-        <v>6959393067.784058</v>
+        <v>11745963646.22159</v>
       </c>
       <c r="E96" t="n">
-        <v>0.002045385215249732</v>
+        <v>0.003703972865183998</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2239472659210287</v>
+        <v>0.1288959735957485</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0.4001557539032804</v>
+        <v>0.1322598453795985</v>
       </c>
       <c r="I96" t="n">
-        <v>2.528041526418396</v>
+        <v>11</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.9862136305952101</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.2522049845986418</v>
+      </c>
+      <c r="L96" t="n">
+        <v>2.746198264797563</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.8478236183283299</v>
+      </c>
+      <c r="N96" t="n">
+        <v>14.21027410176903</v>
       </c>
     </row>
     <row r="97">
@@ -3430,25 +4880,40 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="D97" t="n">
-        <v>8218642955.137807</v>
+        <v>13374325339.40853</v>
       </c>
       <c r="E97" t="n">
-        <v>0.003263687175329887</v>
+        <v>0.001835714537144573</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1909092070995912</v>
+        <v>0.1135942308449323</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.2981668711301222</v>
+        <v>0.09454581064427224</v>
       </c>
       <c r="I97" t="n">
-        <v>2.545036763570788</v>
+        <v>17</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.3893424659828884</v>
+      </c>
+      <c r="L97" t="n">
+        <v>2.395509828927512</v>
+      </c>
+      <c r="M97" t="n">
+        <v>-0.5604833169126259</v>
+      </c>
+      <c r="N97" t="n">
+        <v>-13.60517616718003</v>
       </c>
     </row>
     <row r="98">
@@ -3461,25 +4926,40 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="D98" t="n">
-        <v>9001385747.014065</v>
+        <v>10285670382.06061</v>
       </c>
       <c r="E98" t="n">
-        <v>0.001715347788404721</v>
+        <v>0.001755445146982878</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1187273993178786</v>
+        <v>0.1077228735554741</v>
       </c>
       <c r="G98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0.07534076709077457</v>
+        <v>0.08007474180171641</v>
       </c>
       <c r="I98" t="n">
-        <v>0.09454886196806968</v>
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.1270455696404666</v>
+      </c>
+      <c r="L98" t="n">
+        <v>8.39868550972799</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.7186971740713699</v>
+      </c>
+      <c r="N98" t="n">
+        <v>5.975257971699408</v>
       </c>
     </row>
     <row r="99">
@@ -3492,25 +4972,40 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>533</v>
+        <v>417</v>
       </c>
       <c r="D99" t="n">
-        <v>6910512418.442704</v>
+        <v>10633109706.58619</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004233064340437886</v>
+        <v>0.004987218711569141</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2020305854995658</v>
+        <v>0.1027249469008519</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.3324986992814467</v>
+        <v>0.06775640770562269</v>
       </c>
       <c r="I99" t="n">
-        <v>0.1311352720845025</v>
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.1941517126041738</v>
+      </c>
+      <c r="L99" t="n">
+        <v>8.465791652691697</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.7152660778712953</v>
+      </c>
+      <c r="N99" t="n">
+        <v>5.839529904734208</v>
       </c>
     </row>
     <row r="100">
@@ -3523,25 +5018,40 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>445</v>
+        <v>502</v>
       </c>
       <c r="D100" t="n">
-        <v>10475614177.5463</v>
+        <v>6257988058.077333</v>
       </c>
       <c r="E100" t="n">
-        <v>0.001900736546156981</v>
+        <v>0.002270177291117059</v>
       </c>
       <c r="F100" t="n">
-        <v>0.111270664444519</v>
+        <v>0.2101208515894791</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.05232173734148051</v>
+        <v>0.3324538964699432</v>
       </c>
       <c r="I100" t="n">
-        <v>1.890720133203674</v>
+        <v>7</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.2413480853146142</v>
+      </c>
+      <c r="L100" t="n">
+        <v>3.367734116191871</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.5887453048516155</v>
+      </c>
+      <c r="N100" t="n">
+        <v>8.407171980840438</v>
       </c>
     </row>
     <row r="101">
@@ -3554,25 +5064,40 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>649</v>
+        <v>604</v>
       </c>
       <c r="D101" t="n">
-        <v>4064424208.740203</v>
+        <v>9342700833.528358</v>
       </c>
       <c r="E101" t="n">
-        <v>0.004566768039588344</v>
+        <v>0.003169170035935485</v>
       </c>
       <c r="F101" t="n">
-        <v>0.4182595178781602</v>
+        <v>0.1693419909500089</v>
       </c>
       <c r="G101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0.2319466933579329</v>
       </c>
       <c r="I101" t="n">
-        <v>2.757477227975695</v>
+        <v>9</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.9879676257579895</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.3428942488283203</v>
+      </c>
+      <c r="L101" t="n">
+        <v>3.100107562190829</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.8987347776692431</v>
+      </c>
+      <c r="N101" t="n">
+        <v>14.87458799119403</v>
       </c>
     </row>
   </sheetData>
